--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_IMPORT_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_IMPORT_AR2_50_9.xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR2">
         <v>0.930408540399136</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR3">
         <v>0.7483331123613239</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR4">
         <v>0.7495558047558394</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR5">
         <v>0.7570523620952593</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR6">
         <v>0.7556407823176297</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR7">
         <v>0.7555790335566729</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR8">
         <v>0.7556500718120115</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR9">
         <v>0.7556398042558892</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR10">
         <v>0.7556386552446533</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR11">
         <v>0.7556392989063551</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="G12">
         <v>0.7210263962601585</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="G13">
         <v>2.428806157918392</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="G14">
         <v>1.050801109272453</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="G15">
         <v>1.411824534918228</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="G16">
         <v>1.050974524543226</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="G17">
         <v>1.12085435220911</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="G18">
         <v>1.024076972223352</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="G19">
         <v>1.03510880747977</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="G20">
         <v>1.008439827804994</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="G21">
         <v>1.009126484505896</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="H22">
         <v>1.303698195656406</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="H23">
         <v>1.300006620178971</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="I24">
         <v>1.120635940059945</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="I25">
         <v>1.120499597038231</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="J26">
         <v>1.258914141272425</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="J27">
         <v>1.25598449305048</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="K28">
         <v>1.044188025401939</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="K29">
         <v>1.045738273965407</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="L30">
         <v>1.064905137286523</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="L31">
         <v>1.06454653317221</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="M32">
         <v>0.7724718971410722</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="M33">
         <v>0.776656255305238</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="N34">
         <v>0.9150099744615321</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="N35">
         <v>0.9146720820017208</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="O36">
         <v>0.9960706396110551</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="O37">
         <v>0.9942978142178426</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="P38">
         <v>0.9692552427036046</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="P39">
         <v>0.9682441490206881</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="Q40">
         <v>0.9808217469426759</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="Q41">
         <v>0.9797199816658817</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="R42">
         <v>0.983321146774834</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="R43">
         <v>0.9833365847249723</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="S44">
         <v>0.9905259908315484</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="S45">
         <v>0.9902191028876686</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="T46">
         <v>0.910988481954578</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="T47">
         <v>0.9123908986520297</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="U48">
         <v>0.9698989799969051</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="U49">
         <v>0.9699165659997355</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="V50">
         <v>0.9389646252660595</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="V51">
         <v>0.9380392004244613</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="W52">
         <v>0.9562568047627151</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="X53">
         <v>0.8135755341102363</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="Y54">
         <v>0.8650602301412087</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="Z55">
         <v>0.8428943198525503</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="AA56">
         <v>0.7998125137090382</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="AB57">
         <v>0.8154032300498437</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="AC58">
         <v>0.8303455406757688</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="AD59">
         <v>0.7574278716614997</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="AE60">
         <v>0.7847766545610406</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="AF61">
         <v>0.6687325395505883</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="AG62">
         <v>0.4582315859750936</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="AH63">
         <v>0.6585785554272805</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_IMPORT_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_IMPORT_AR2_50_9.xlsx
@@ -538,34 +538,34 @@
         <v>25614</v>
       </c>
       <c r="AR2">
-        <v>0.930408540399136</v>
+        <v>1.256708708191798</v>
       </c>
       <c r="AS2">
-        <v>0.7591568836882077</v>
+        <v>0.9627365691316523</v>
       </c>
       <c r="AT2">
-        <v>0.9927869548252464</v>
+        <v>1.013175764704623</v>
       </c>
       <c r="AU2">
-        <v>0.7571769574411817</v>
+        <v>1.025050331332093</v>
       </c>
       <c r="AV2">
-        <v>0.637761074008814</v>
+        <v>0.7025840954900182</v>
       </c>
       <c r="AW2">
-        <v>0.8184060034377316</v>
+        <v>0.7522567190936221</v>
       </c>
       <c r="AX2">
-        <v>0.7763915202651026</v>
+        <v>0.7621491802373395</v>
       </c>
       <c r="AY2">
-        <v>0.8173876857776884</v>
+        <v>0.7394425696296705</v>
       </c>
       <c r="AZ2">
-        <v>0.7345880463239913</v>
+        <v>0.6617279941233696</v>
       </c>
       <c r="BA2">
-        <v>0.6907694560231499</v>
+        <v>0.4948800926981688</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -573,34 +573,34 @@
         <v>25614</v>
       </c>
       <c r="AR3">
-        <v>0.7483331123613239</v>
+        <v>0.7905433809392088</v>
       </c>
       <c r="AS3">
-        <v>0.7135713519324816</v>
+        <v>0.7332748393606526</v>
       </c>
       <c r="AT3">
-        <v>0.6340095231610794</v>
+        <v>0.6788169881567481</v>
       </c>
       <c r="AU3">
-        <v>0.6053776609144222</v>
+        <v>0.6211490890855967</v>
       </c>
       <c r="AV3">
-        <v>0.6652548729744032</v>
+        <v>0.6359410336475624</v>
       </c>
       <c r="AW3">
-        <v>0.6517097367584771</v>
+        <v>0.6549325368717508</v>
       </c>
       <c r="AX3">
-        <v>0.6937731559325442</v>
+        <v>0.6961397858537394</v>
       </c>
       <c r="AY3">
-        <v>0.6965980248170183</v>
+        <v>0.7089812840466063</v>
       </c>
       <c r="AZ3">
-        <v>0.6577924424942361</v>
+        <v>0.663227702901074</v>
       </c>
       <c r="BA3">
-        <v>0.6756958926719081</v>
+        <v>0.6815702729853874</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -608,34 +608,34 @@
         <v>25614</v>
       </c>
       <c r="AR4">
-        <v>0.7495558047558394</v>
+        <v>0.7712718743274624</v>
       </c>
       <c r="AS4">
-        <v>0.7176829122021289</v>
+        <v>0.7333619642360021</v>
       </c>
       <c r="AT4">
-        <v>0.6266328908487473</v>
+        <v>0.6603445417923401</v>
       </c>
       <c r="AU4">
-        <v>0.6122695162284958</v>
+        <v>0.6153773352081815</v>
       </c>
       <c r="AV4">
-        <v>0.666310477763811</v>
+        <v>0.6443639921800119</v>
       </c>
       <c r="AW4">
-        <v>0.6516020085797197</v>
+        <v>0.6535128256705018</v>
       </c>
       <c r="AX4">
-        <v>0.6913949319117496</v>
+        <v>0.6873857155348322</v>
       </c>
       <c r="AY4">
-        <v>0.6879823303891742</v>
+        <v>0.7074823940546657</v>
       </c>
       <c r="AZ4">
-        <v>0.6462116831765145</v>
+        <v>0.6785536543435746</v>
       </c>
       <c r="BA4">
-        <v>0.6593565445009232</v>
+        <v>0.6976967405788622</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -643,34 +643,34 @@
         <v>25614</v>
       </c>
       <c r="AR5">
-        <v>0.7570523620952593</v>
+        <v>0.7972698689694844</v>
       </c>
       <c r="AS5">
-        <v>0.718955362947475</v>
+        <v>0.742809970923799</v>
       </c>
       <c r="AT5">
-        <v>0.6374932038870037</v>
+        <v>0.6742212709900934</v>
       </c>
       <c r="AU5">
-        <v>0.6139809000235247</v>
+        <v>0.6262299214208327</v>
       </c>
       <c r="AV5">
-        <v>0.6654321588620311</v>
+        <v>0.6446325641075974</v>
       </c>
       <c r="AW5">
-        <v>0.655787055288072</v>
+        <v>0.6560208972794305</v>
       </c>
       <c r="AX5">
-        <v>0.6946286197582078</v>
+        <v>0.6909590730111044</v>
       </c>
       <c r="AY5">
-        <v>0.6934696869916525</v>
+        <v>0.7087715895365299</v>
       </c>
       <c r="AZ5">
-        <v>0.6508206276828223</v>
+        <v>0.6759870634236258</v>
       </c>
       <c r="BA5">
-        <v>0.6627263075656754</v>
+        <v>0.687436075401693</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -678,34 +678,34 @@
         <v>25614</v>
       </c>
       <c r="AR6">
-        <v>0.7556407823176297</v>
+        <v>0.7934595778988142</v>
       </c>
       <c r="AS6">
-        <v>0.7185502566905289</v>
+        <v>0.7411542704313682</v>
       </c>
       <c r="AT6">
-        <v>0.6360099696514498</v>
+        <v>0.67251509034182</v>
       </c>
       <c r="AU6">
-        <v>0.6136089787502794</v>
+        <v>0.6247306118860642</v>
       </c>
       <c r="AV6">
-        <v>0.6655447978050266</v>
+        <v>0.6443881070363247</v>
       </c>
       <c r="AW6">
-        <v>0.6551152887107246</v>
+        <v>0.655652317120789</v>
       </c>
       <c r="AX6">
-        <v>0.6941750636458871</v>
+        <v>0.6906539748154205</v>
       </c>
       <c r="AY6">
-        <v>0.6928530116238765</v>
+        <v>0.7086091795006542</v>
       </c>
       <c r="AZ6">
-        <v>0.6504707962726708</v>
+        <v>0.6758296826757358</v>
       </c>
       <c r="BA6">
-        <v>0.6628562823600541</v>
+        <v>0.6884635311272305</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -713,34 +713,34 @@
         <v>25614</v>
       </c>
       <c r="AR7">
-        <v>0.7555790335566729</v>
+        <v>0.7929002899219812</v>
       </c>
       <c r="AS7">
-        <v>0.7185660354446477</v>
+        <v>0.7410541456153231</v>
       </c>
       <c r="AT7">
-        <v>0.6359456850104356</v>
+        <v>0.6723496424251574</v>
       </c>
       <c r="AU7">
-        <v>0.6136324488915694</v>
+        <v>0.6246893065991866</v>
       </c>
       <c r="AV7">
-        <v>0.6655495430512921</v>
+        <v>0.6444202660863473</v>
       </c>
       <c r="AW7">
-        <v>0.6551189171019213</v>
+        <v>0.6556526000102457</v>
       </c>
       <c r="AX7">
-        <v>0.6941389881123428</v>
+        <v>0.6905887110884105</v>
       </c>
       <c r="AY7">
-        <v>0.6927702681924192</v>
+        <v>0.7085920413807106</v>
       </c>
       <c r="AZ7">
-        <v>0.6503659692537679</v>
+        <v>0.6759522093381291</v>
       </c>
       <c r="BA7">
-        <v>0.6626916254827613</v>
+        <v>0.688713183432506</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -748,34 +748,34 @@
         <v>25614</v>
       </c>
       <c r="AR8">
-        <v>0.7556500718120115</v>
+        <v>0.7931860377454867</v>
       </c>
       <c r="AS8">
-        <v>0.718581011191583</v>
+        <v>0.7411399365662992</v>
       </c>
       <c r="AT8">
-        <v>0.6359958192370796</v>
+        <v>0.6724322695169255</v>
       </c>
       <c r="AU8">
-        <v>0.61363568489251</v>
+        <v>0.6247325998698823</v>
       </c>
       <c r="AV8">
-        <v>0.665545877690198</v>
+        <v>0.6444210519184407</v>
       </c>
       <c r="AW8">
-        <v>0.655135127639529</v>
+        <v>0.6556611916430528</v>
       </c>
       <c r="AX8">
-        <v>0.6941605510127725</v>
+        <v>0.6906093082694709</v>
       </c>
       <c r="AY8">
-        <v>0.692804686119364</v>
+        <v>0.7086004305826284</v>
       </c>
       <c r="AZ8">
-        <v>0.6503955257300246</v>
+        <v>0.6759380748173183</v>
       </c>
       <c r="BA8">
-        <v>0.662713627148877</v>
+        <v>0.6886302903745173</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -783,34 +783,34 @@
         <v>25614</v>
       </c>
       <c r="AR9">
-        <v>0.7556398042558892</v>
+        <v>0.7931609178612773</v>
       </c>
       <c r="AS9">
-        <v>0.7185776733762158</v>
+        <v>0.7411290641500718</v>
       </c>
       <c r="AT9">
-        <v>0.63598979102246</v>
+        <v>0.6724239033015941</v>
       </c>
       <c r="AU9">
-        <v>0.6136347950713753</v>
+        <v>0.6247270704709175</v>
       </c>
       <c r="AV9">
-        <v>0.6655463389665499</v>
+        <v>0.6444201564073324</v>
       </c>
       <c r="AW9">
-        <v>0.6551324244418321</v>
+        <v>0.6556598084452399</v>
       </c>
       <c r="AX9">
-        <v>0.6941582215647019</v>
+        <v>0.6906080280254545</v>
       </c>
       <c r="AY9">
-        <v>0.6928017839384326</v>
+        <v>0.7085996260436945</v>
       </c>
       <c r="AZ9">
-        <v>0.6503943587808811</v>
+        <v>0.6759357709358096</v>
       </c>
       <c r="BA9">
-        <v>0.6627169349346809</v>
+        <v>0.6886337235059803</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -818,34 +818,34 @@
         <v>25614</v>
       </c>
       <c r="AR10">
-        <v>0.7556386552446533</v>
+        <v>0.7931517151269136</v>
       </c>
       <c r="AS10">
-        <v>0.7185776064316092</v>
+        <v>0.7411274272255535</v>
       </c>
       <c r="AT10">
-        <v>0.6359893673760445</v>
+        <v>0.672422620539656</v>
       </c>
       <c r="AU10">
-        <v>0.6136348665672169</v>
+        <v>0.6247268373618196</v>
       </c>
       <c r="AV10">
-        <v>0.6655463601682945</v>
+        <v>0.6444202789644708</v>
       </c>
       <c r="AW10">
-        <v>0.6551324547972388</v>
+        <v>0.6556598287358253</v>
       </c>
       <c r="AX10">
-        <v>0.6941578659616696</v>
+        <v>0.6906075731268313</v>
       </c>
       <c r="AY10">
-        <v>0.6928011054050561</v>
+        <v>0.7085994727109626</v>
       </c>
       <c r="AZ10">
-        <v>0.6503935095619549</v>
+        <v>0.6759366810813729</v>
       </c>
       <c r="BA10">
-        <v>0.6627154489294894</v>
+        <v>0.6886365397070199</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -853,34 +853,34 @@
         <v>25614</v>
       </c>
       <c r="AR11">
-        <v>0.7556392989063551</v>
+        <v>0.7931546045247173</v>
       </c>
       <c r="AS11">
-        <v>0.7185777646197286</v>
+        <v>0.7411281618529967</v>
       </c>
       <c r="AT11">
-        <v>0.6359895962971932</v>
+        <v>0.6724231039636257</v>
       </c>
       <c r="AU11">
-        <v>0.6136348720792095</v>
+        <v>0.6247270092467339</v>
       </c>
       <c r="AV11">
-        <v>0.6655463448761939</v>
+        <v>0.6444202810931231</v>
       </c>
       <c r="AW11">
-        <v>0.6551325174896379</v>
+        <v>0.6556598578973724</v>
       </c>
       <c r="AX11">
-        <v>0.6941580049029286</v>
+        <v>0.6906076893449039</v>
       </c>
       <c r="AY11">
-        <v>0.6928013151479059</v>
+        <v>0.7085995256089119</v>
       </c>
       <c r="AZ11">
-        <v>0.6503936902831722</v>
+        <v>0.675936618867267</v>
       </c>
       <c r="BA11">
-        <v>0.6627155569389676</v>
+        <v>0.6886359372401165</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1765,7 +1765,7 @@
         <v>0.1450831793477922</v>
       </c>
       <c r="AG53">
-        <v>-3.845794628264701</v>
+        <v>-6.396046400325742</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -1797,10 +1797,10 @@
         <v>0.4982076390980224</v>
       </c>
       <c r="AG54">
-        <v>2.506534318102371</v>
+        <v>-5.766215543812082</v>
       </c>
       <c r="AH54">
-        <v>0.4364523286311628</v>
+        <v>-4.287774961580356</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -1829,13 +1829,13 @@
         <v>0.5393113703206293</v>
       </c>
       <c r="AG55">
-        <v>-0.6828749128889391</v>
+        <v>-3.515613508106303</v>
       </c>
       <c r="AH55">
-        <v>0.6475040701138393</v>
+        <v>3.010301665632215</v>
       </c>
       <c r="AI55">
-        <v>0.7342813111631378</v>
+        <v>-0.005251054067139105</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -1861,16 +1861,16 @@
         <v>0.6164332143553406</v>
       </c>
       <c r="AG56">
-        <v>1.005872098389955</v>
+        <v>-2.545363797281564</v>
       </c>
       <c r="AH56">
-        <v>0.662860782334763</v>
+        <v>-0.9181995509169492</v>
       </c>
       <c r="AI56">
-        <v>0.874995098467011</v>
+        <v>0.4830283531380689</v>
       </c>
       <c r="AJ56">
-        <v>0.5745497961884141</v>
+        <v>0.5961525090010259</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -1893,19 +1893,19 @@
         <v>0.6364727569980979</v>
       </c>
       <c r="AG57">
-        <v>0.1479204370354341</v>
+        <v>-1.712760590900735</v>
       </c>
       <c r="AH57">
-        <v>0.6585124153175819</v>
+        <v>1.220370687016537</v>
       </c>
       <c r="AI57">
-        <v>0.7518929710010719</v>
+        <v>0.7287571731359753</v>
       </c>
       <c r="AJ57">
-        <v>1.024699970419289</v>
+        <v>0.9687723131431737</v>
       </c>
       <c r="AK57">
-        <v>1.041194553472335</v>
+        <v>0.7113308920122178</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -1925,22 +1925,22 @@
         <v>0.6550078456410656</v>
       </c>
       <c r="AG58">
-        <v>0.5980259729270256</v>
+        <v>-1.199476556686591</v>
       </c>
       <c r="AH58">
-        <v>0.6585121736808095</v>
+        <v>0.06552153830939075</v>
       </c>
       <c r="AI58">
-        <v>0.7543029313571837</v>
+        <v>0.6867386361564709</v>
       </c>
       <c r="AJ58">
-        <v>1.024744530715197</v>
+        <v>0.845397975296544</v>
       </c>
       <c r="AK58">
-        <v>0.9606552776704878</v>
+        <v>1.027027961330665</v>
       </c>
       <c r="AL58">
-        <v>1.068415536475473</v>
+        <v>1.166215952594906</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -1957,25 +1957,25 @@
         <v>0.6618622963796924</v>
       </c>
       <c r="AG59">
-        <v>0.3677164393788694</v>
+        <v>-0.8339616971033534</v>
       </c>
       <c r="AH59">
-        <v>0.6585834768959139</v>
+        <v>0.6927557408331804</v>
       </c>
       <c r="AI59">
-        <v>0.7619546169496175</v>
+        <v>0.670773833643874</v>
       </c>
       <c r="AJ59">
-        <v>1.008788064868321</v>
+        <v>0.8686448769137544</v>
       </c>
       <c r="AK59">
-        <v>0.9688608439855991</v>
+        <v>1.013287578447982</v>
       </c>
       <c r="AL59">
-        <v>0.9664319756539007</v>
+        <v>0.9393855095694837</v>
       </c>
       <c r="AM59">
-        <v>1.117171974280011</v>
+        <v>0.4804442909032954</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -1989,28 +1989,28 @@
         <v>0.6666286380403513</v>
       </c>
       <c r="AG60">
-        <v>0.4878725507820408</v>
+        <v>-0.5903435966646547</v>
       </c>
       <c r="AH60">
-        <v>0.6585793564465525</v>
+        <v>0.3534889237476079</v>
       </c>
       <c r="AI60">
-        <v>0.7610911270757403</v>
+        <v>0.6742276823412219</v>
       </c>
       <c r="AJ60">
-        <v>1.011676376129711</v>
+        <v>0.8629131507160639</v>
       </c>
       <c r="AK60">
-        <v>0.968147851033568</v>
+        <v>1.0056229997433</v>
       </c>
       <c r="AL60">
-        <v>0.9670774328376538</v>
+        <v>0.94934355711945</v>
       </c>
       <c r="AM60">
-        <v>1.028274120644365</v>
+        <v>1.081081883697927</v>
       </c>
       <c r="AN60">
-        <v>0.7401839744354588</v>
+        <v>0.8285839644717098</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -2021,31 +2021,31 @@
         <v>0.6687325395505883</v>
       </c>
       <c r="AG61">
-        <v>0.4261251821561504</v>
+        <v>-0.4230700930588213</v>
       </c>
       <c r="AH61">
-        <v>0.658578425807309</v>
+        <v>0.537539430627847</v>
       </c>
       <c r="AI61">
-        <v>0.7606816797812164</v>
+        <v>0.6752422636903352</v>
       </c>
       <c r="AJ61">
-        <v>1.011718593973082</v>
+        <v>0.8641440420794432</v>
       </c>
       <c r="AK61">
-        <v>0.9682019574424432</v>
+        <v>1.007455437933515</v>
       </c>
       <c r="AL61">
-        <v>0.9704802139098364</v>
+        <v>0.9511055873045539</v>
       </c>
       <c r="AM61">
-        <v>0.9327676281041085</v>
+        <v>1.069651347979043</v>
       </c>
       <c r="AN61">
-        <v>0.9035162578637541</v>
+        <v>0.9915097036955562</v>
       </c>
       <c r="AO61">
-        <v>0.9761274720733345</v>
+        <v>0.7662967773003616</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -2053,34 +2053,34 @@
         <v>44880</v>
       </c>
       <c r="AG62">
-        <v>0.4582315859750936</v>
+        <v>-0.3097556835968031</v>
       </c>
       <c r="AH62">
-        <v>0.6585785471911683</v>
+        <v>0.4379041982856289</v>
       </c>
       <c r="AI62">
-        <v>0.7607748751955965</v>
+        <v>0.6749676730510745</v>
       </c>
       <c r="AJ62">
-        <v>1.011608617721322</v>
+        <v>0.8638609108340006</v>
       </c>
       <c r="AK62">
-        <v>0.9681984383579079</v>
+        <v>1.007369628770358</v>
       </c>
       <c r="AL62">
-        <v>0.9699627117755756</v>
+        <v>0.95068767324883</v>
       </c>
       <c r="AM62">
-        <v>0.951031046299873</v>
+        <v>1.061103869810445</v>
       </c>
       <c r="AN62">
-        <v>0.9009612042503401</v>
+        <v>0.9746735230674046</v>
       </c>
       <c r="AO62">
-        <v>0.8704293251213148</v>
+        <v>0.8875014750268306</v>
       </c>
       <c r="AP62">
-        <v>1.364234471612537</v>
+        <v>0.5864615044161667</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -2088,34 +2088,34 @@
         <v>44972</v>
       </c>
       <c r="AH63">
-        <v>0.6585785554272805</v>
+        <v>0.4919233262031163</v>
       </c>
       <c r="AI63">
-        <v>0.7607924290461164</v>
+        <v>0.6749049181680009</v>
       </c>
       <c r="AJ63">
-        <v>1.011627039881634</v>
+        <v>0.8639238120914912</v>
       </c>
       <c r="AK63">
-        <v>0.968198616982929</v>
+        <v>1.007326238581604</v>
       </c>
       <c r="AL63">
-        <v>0.9699213765300418</v>
+        <v>0.9507267234796544</v>
       </c>
       <c r="AM63">
-        <v>0.9524857625569013</v>
+        <v>1.062580487829708</v>
       </c>
       <c r="AN63">
-        <v>0.8971426715439712</v>
+        <v>0.9692226833181444</v>
       </c>
       <c r="AO63">
-        <v>0.867288107778394</v>
+        <v>0.8873260221515663</v>
       </c>
       <c r="AP63">
-        <v>0.8861609477087481</v>
+        <v>0.9328623304206221</v>
       </c>
       <c r="AQ63">
-        <v>1.299601161681465</v>
+        <v>1.235367727493185</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_IMPORT_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_IMPORT_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV72"/>
+  <dimension ref="A1:AW73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="B1" s="1">
         <v>40269</v>
       </c>
@@ -517,8 +517,11 @@
       <c r="AV1" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
+      <c r="AW1" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" s="1">
         <v>40313</v>
       </c>
@@ -526,7 +529,7 @@
         <v>0.7210263962601585</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" s="1">
         <v>40405</v>
       </c>
@@ -534,7 +537,7 @@
         <v>2.428806157918392</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" s="1">
         <v>40497</v>
       </c>
@@ -545,7 +548,7 @@
         <v>2.549545006384507</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" s="1">
         <v>40589</v>
       </c>
@@ -556,7 +559,7 @@
         <v>1.713626521670565</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" s="1">
         <v>40678</v>
       </c>
@@ -570,7 +573,7 @@
         <v>1.169485565720955</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" s="1">
         <v>40770</v>
       </c>
@@ -584,7 +587,7 @@
         <v>1.171591481684992</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" s="1">
         <v>40862</v>
       </c>
@@ -601,7 +604,7 @@
         <v>1.876663771038566</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49">
       <c r="A9" s="1">
         <v>40954</v>
       </c>
@@ -618,7 +621,7 @@
         <v>1.65425190236081</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:49">
       <c r="A10" s="1">
         <v>41044</v>
       </c>
@@ -638,7 +641,7 @@
         <v>0.5203355206448428</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:49">
       <c r="A11" s="1">
         <v>41136</v>
       </c>
@@ -658,7 +661,7 @@
         <v>0.7636262281782931</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:49">
       <c r="A12" s="1">
         <v>41228</v>
       </c>
@@ -678,7 +681,7 @@
         <v>1.261103514181762</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49">
       <c r="A13" s="1">
         <v>41320</v>
       </c>
@@ -698,7 +701,7 @@
         <v>1.101452788350823</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49">
       <c r="A14" s="1">
         <v>41409</v>
       </c>
@@ -718,7 +721,7 @@
         <v>-0.255442126626129</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49">
       <c r="A15" s="1">
         <v>41501</v>
       </c>
@@ -738,7 +741,7 @@
         <v>0.06058039223572087</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:49">
       <c r="A16" s="1">
         <v>41593</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>1.166215952594906</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:49">
       <c r="A49" s="1">
         <v>44607</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>0.4804442909032954</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:49">
       <c r="A50" s="1">
         <v>44696</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>0.8285839644717098</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:49">
       <c r="A51" s="1">
         <v>44788</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>0.7662967773003616</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:49">
       <c r="A52" s="1">
         <v>44880</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>0.5864615044161667</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:49">
       <c r="A53" s="1">
         <v>44972</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>1.235367727493185</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:49">
       <c r="A54" s="1">
         <v>45061</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>1.256708708191798</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:49">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>0.9627365691316523</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:49">
       <c r="A56" s="1">
         <v>45245</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>1.013175764704623</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:49">
       <c r="A57" s="1">
         <v>45337</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>1.025050331332093</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:49">
       <c r="A58" s="1">
         <v>45427</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>0.7025840954900182</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:49">
       <c r="A59" s="1">
         <v>45519</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>0.7522567190936221</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:49">
       <c r="A60" s="1">
         <v>45611</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>0.7621491802373395</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:49">
       <c r="A61" s="1">
         <v>45703</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>0.7394425696296705</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:49">
       <c r="A62" s="1">
         <v>45792</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>0.6617279941233696</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:49">
       <c r="A63" s="1">
         <v>45884</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>0.4948800926981688</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:49">
       <c r="A64" s="1">
         <v>45976</v>
       </c>
@@ -2134,8 +2137,11 @@
       <c r="AV64">
         <v>0.6815702729853874</v>
       </c>
-    </row>
-    <row r="65" spans="1:48">
+      <c r="AW64">
+        <v>0.719473196736553</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
       <c r="A65" s="1">
         <v>46068</v>
       </c>
@@ -2163,8 +2169,11 @@
       <c r="AV65">
         <v>0.6976967405788622</v>
       </c>
-    </row>
-    <row r="66" spans="1:48">
+      <c r="AW65">
+        <v>0.6752544302532623</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
       <c r="A66" s="1">
         <v>46157</v>
       </c>
@@ -2189,8 +2198,11 @@
       <c r="AV66">
         <v>0.687436075401693</v>
       </c>
-    </row>
-    <row r="67" spans="1:48">
+      <c r="AW66">
+        <v>0.6532787989117363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
       <c r="A67" s="1">
         <v>46249</v>
       </c>
@@ -2212,8 +2224,11 @@
       <c r="AV67">
         <v>0.6884635311272305</v>
       </c>
-    </row>
-    <row r="68" spans="1:48">
+      <c r="AW67">
+        <v>0.6588538323071631</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
       <c r="A68" s="1">
         <v>46341</v>
       </c>
@@ -2232,8 +2247,11 @@
       <c r="AV68">
         <v>0.688713183432506</v>
       </c>
-    </row>
-    <row r="69" spans="1:48">
+      <c r="AW68">
+        <v>0.6588609317435923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
       <c r="A69" s="1">
         <v>46433</v>
       </c>
@@ -2249,8 +2267,11 @@
       <c r="AV69">
         <v>0.6886302903745173</v>
       </c>
-    </row>
-    <row r="70" spans="1:48">
+      <c r="AW69">
+        <v>0.6586210043061691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
       <c r="A70" s="1">
         <v>46522</v>
       </c>
@@ -2263,8 +2284,11 @@
       <c r="AV70">
         <v>0.6886337235059803</v>
       </c>
-    </row>
-    <row r="71" spans="1:48">
+      <c r="AW70">
+        <v>0.6586608941090445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49">
       <c r="A71" s="1">
         <v>46614</v>
       </c>
@@ -2274,13 +2298,27 @@
       <c r="AV71">
         <v>0.6886365397070199</v>
       </c>
-    </row>
-    <row r="72" spans="1:48">
+      <c r="AW71">
+        <v>0.6586644859197338</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
       <c r="A72" s="1">
         <v>46706</v>
       </c>
       <c r="AV72">
         <v>0.6886359372401165</v>
+      </c>
+      <c r="AW72">
+        <v>0.6586621760120679</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
+      <c r="A73" s="1">
+        <v>46798</v>
+      </c>
+      <c r="AW73">
+        <v>0.6586624091680092</v>
       </c>
     </row>
   </sheetData>
